--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1727797.477513304</v>
+        <v>1721360.952937718</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9157847.324244484</v>
+        <v>9157257.344854068</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>53.27064365780828</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>226.8863378130174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>86.21210727751406</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.110409776865081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.62754490672864</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>40.02170330568897</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1629387757997</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>371.0457265806214</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>141.6439892506791</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>83.26578655053413</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>103.881269554817</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>139.519394494172</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>76.47341699539027</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>125.5300102612292</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.612600499655</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>120.0961968842568</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>16.66600203378635</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>49.29426195803394</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>55.63584681832513</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>105.3131909772431</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>59.14146526523379</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>55.63584681832526</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10.23912069385386</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542117</v>
+        <v>283.7098784815734</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820275</v>
+        <v>276.4638267093891</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954277</v>
+        <v>268.8067977227894</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345497</v>
+        <v>285.7777698619113</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852508</v>
+        <v>299.9455743126124</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.2512081841672</v>
       </c>
       <c r="H32" t="n">
-        <v>214.505762629103</v>
+        <v>208.0623001564647</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838861</v>
+        <v>24.17382596575024</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828874</v>
+        <v>52.06849973565036</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161063</v>
+        <v>108.4856766434679</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696762</v>
+        <v>140.4152824970378</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034456</v>
+        <v>225.9058214308072</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813242</v>
+        <v>254.5091249086858</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162025</v>
+        <v>272.7781592435641</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885337</v>
+        <v>279.7458822158953</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431706</v>
+        <v>70.57601873167869</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459947</v>
+        <v>55.72314698196109</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643919</v>
+        <v>41.29686219380082</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193183</v>
+        <v>41.22330424667993</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908557</v>
+        <v>42.9727556664472</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147771</v>
+        <v>53.79159358883933</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804975</v>
+        <v>41.14384575541138</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922168</v>
+        <v>18.98356133658331</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736776</v>
+        <v>9.882059701039225</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920492</v>
+        <v>88.00800320656654</v>
       </c>
       <c r="T34" t="n">
-        <v>127.025404013377</v>
+        <v>120.5819415407386</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678085</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273128</v>
+        <v>150.5396319546744</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480629</v>
+        <v>167.7171782754246</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947755</v>
+        <v>118.9595992221371</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714519</v>
+        <v>108.1010207988135</v>
       </c>
     </row>
     <row r="35">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3995,7 +3995,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422876317</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>774.9962245128074</v>
+        <v>648.8009820296372</v>
       </c>
       <c r="C2" t="n">
-        <v>774.9962245128074</v>
+        <v>255.6254805325678</v>
       </c>
       <c r="D2" t="n">
-        <v>389.5550957294752</v>
+        <v>255.6254805325678</v>
       </c>
       <c r="E2" t="n">
-        <v>389.5550957294752</v>
+        <v>255.6254805325678</v>
       </c>
       <c r="F2" t="n">
-        <v>376.701061299857</v>
+        <v>242.7714461029496</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>233.6490946313569</v>
       </c>
       <c r="H2" t="n">
-        <v>43.4956593947549</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>400.4856027838004</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>893.8058945023292</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150837</v>
+        <v>1376.71409906629</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845416</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737745</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737745</v>
+        <v>1890.316777675979</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023267</v>
+        <v>2037.16942410245</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964317</v>
+        <v>1870.6558690435</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523734</v>
+        <v>1647.155266602917</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523734</v>
+        <v>1391.402537037516</v>
       </c>
       <c r="V2" t="n">
-        <v>1404.669089227252</v>
+        <v>1049.295727741034</v>
       </c>
       <c r="W2" t="n">
-        <v>1404.669089227252</v>
+        <v>1049.295727741034</v>
       </c>
       <c r="X2" t="n">
-        <v>1404.669089227252</v>
+        <v>1049.295727741034</v>
       </c>
       <c r="Y2" t="n">
-        <v>1175.490970224204</v>
+        <v>1049.295727741034</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021397</v>
+        <v>556.1927859813229</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622319</v>
+        <v>405.5385555414151</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837122</v>
+        <v>275.4495881628955</v>
       </c>
       <c r="E3" t="n">
-        <v>375.0702200837122</v>
+        <v>139.0030972737832</v>
       </c>
       <c r="F3" t="n">
-        <v>250.638413966844</v>
+        <v>139.0030972737832</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5785960387085</v>
+        <v>139.0030972737832</v>
       </c>
       <c r="H3" t="n">
-        <v>43.4956593947549</v>
+        <v>50.7056808743841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J3" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>50.78821608954598</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>534.3543019878592</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365387</v>
+        <v>1047.956980597549</v>
       </c>
       <c r="N3" t="n">
-        <v>1769.161601021347</v>
+        <v>1561.559659207238</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021347</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635809</v>
+        <v>2051.245294714992</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535678</v>
+        <v>1916.314617614861</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734586</v>
+        <v>1739.33080581377</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413228</v>
+        <v>1529.267662492411</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784295</v>
+        <v>1306.727660863478</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917582</v>
+        <v>1076.610414996765</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675937</v>
+        <v>887.303337346777</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.609752343101</v>
+        <v>707.9891204222843</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.2236301045415</v>
+        <v>352.6951719946213</v>
       </c>
       <c r="C4" t="n">
-        <v>709.2236301045415</v>
+        <v>352.6951719946213</v>
       </c>
       <c r="D4" t="n">
-        <v>644.9533827240075</v>
+        <v>197.0620588971361</v>
       </c>
       <c r="E4" t="n">
-        <v>489.3945705832101</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="F4" t="n">
-        <v>332.068635796183</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="G4" t="n">
-        <v>332.068635796183</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="H4" t="n">
-        <v>176.590084757677</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V4" t="n">
-        <v>709.2236301045415</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W4" t="n">
-        <v>709.2236301045415</v>
+        <v>575.807233177978</v>
       </c>
       <c r="X4" t="n">
-        <v>709.2236301045415</v>
+        <v>575.807233177978</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.2236301045415</v>
+        <v>352.6951719946213</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.8436702132137</v>
+        <v>1224.909970779231</v>
       </c>
       <c r="C5" t="n">
-        <v>582.6681687161442</v>
+        <v>831.7344692821612</v>
       </c>
       <c r="D5" t="n">
-        <v>197.227039932812</v>
+        <v>831.7344692821612</v>
       </c>
       <c r="E5" t="n">
-        <v>197.227039932812</v>
+        <v>429.1509443987057</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634767</v>
+        <v>416.2969099690875</v>
       </c>
       <c r="G5" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="H5" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I5" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310448</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697128</v>
+        <v>1286.935244793078</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737745</v>
+        <v>1726.974845685406</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023267</v>
+        <v>1851.661735376344</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023267</v>
+        <v>1595.909005810943</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023267</v>
+        <v>1595.909005810943</v>
       </c>
       <c r="W5" t="n">
-        <v>1765.791020991554</v>
+        <v>1224.909970779231</v>
       </c>
       <c r="X5" t="n">
-        <v>1376.338415924611</v>
+        <v>1224.909970779231</v>
       </c>
       <c r="Y5" t="n">
-        <v>1376.338415924611</v>
+        <v>1224.909970779231</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.8018246066503</v>
+        <v>661.3930085297615</v>
       </c>
       <c r="C6" t="n">
-        <v>572.1475941667425</v>
+        <v>510.7387780898537</v>
       </c>
       <c r="D6" t="n">
-        <v>442.0586267882229</v>
+        <v>510.7387780898537</v>
       </c>
       <c r="E6" t="n">
-        <v>305.6121358991106</v>
+        <v>374.2922872007414</v>
       </c>
       <c r="F6" t="n">
-        <v>181.1803297822424</v>
+        <v>249.8604810838732</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557376</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828433</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I6" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>361.242392818565</v>
       </c>
       <c r="L6" t="n">
-        <v>640.1767275127955</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136672</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146764</v>
+        <v>1327.194567652348</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737745</v>
+        <v>1840.797246262037</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737745</v>
+        <v>1840.797246262037</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635809</v>
+        <v>2051.245294714992</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535678</v>
+        <v>1916.314617614861</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734586</v>
+        <v>1739.33080581377</v>
       </c>
       <c r="U6" t="n">
-        <v>1695.876701117739</v>
+        <v>1529.267662492411</v>
       </c>
       <c r="V6" t="n">
-        <v>1473.336699488806</v>
+        <v>1306.727660863478</v>
       </c>
       <c r="W6" t="n">
-        <v>1243.219453622093</v>
+        <v>1076.610414996765</v>
       </c>
       <c r="X6" t="n">
-        <v>1053.912375972104</v>
+        <v>992.5035598952156</v>
       </c>
       <c r="Y6" t="n">
-        <v>874.5981590476116</v>
+        <v>813.1893429707228</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.1130112616399</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="C7" t="n">
-        <v>680.1130112616399</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="D7" t="n">
-        <v>680.1130112616399</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="E7" t="n">
-        <v>524.5541991208424</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338153</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="G7" t="n">
-        <v>198.9742104332609</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="H7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="I7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="J7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633856</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>680.1130112616399</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>680.1130112616399</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>680.1130112616399</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V7" t="n">
-        <v>680.1130112616399</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W7" t="n">
-        <v>680.1130112616399</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X7" t="n">
-        <v>680.1130112616399</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.1130112616399</v>
+        <v>146.4338220642345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.9059862831563</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="C8" t="n">
-        <v>454.7304847860868</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2034.344046140895</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>2034.344046140895</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.891441073952</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.400731994553</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.4399127684381</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>370.2347948344274</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>214.6016817369421</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>59.04286959614461</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>59.04286959614461</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>59.04286959614461</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>59.04286959614461</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>59.04286959614461</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>725.6479314597394</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.395101119023</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1393.015874768147</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131009</v>
+        <v>800.8136995685215</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937472</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699185</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2984.647095423699</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.44433553818</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.788005617431</v>
+        <v>2089.230684054944</v>
       </c>
       <c r="Y11" t="n">
-        <v>2043.093571684226</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.690231197904</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>448.72262197915</v>
+        <v>216.7257955609475</v>
       </c>
       <c r="C13" t="n">
-        <v>398.930438183156</v>
+        <v>118.3169527731308</v>
       </c>
       <c r="D13" t="n">
-        <v>315.0936002318646</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>231.331063237261</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840486</v>
+        <v>741.8597555915619</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614202</v>
+        <v>530.3256286689334</v>
       </c>
       <c r="X13" t="n">
-        <v>713.4501515614202</v>
+        <v>368.0415815981103</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.1343655242574</v>
+        <v>216.7257955609475</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1463.714265689663</v>
+        <v>1374.479701206712</v>
       </c>
       <c r="C14" t="n">
-        <v>1142.335039338787</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="D14" t="n">
-        <v>828.6901857016492</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E14" t="n">
-        <v>828.6901857016492</v>
+        <v>722.313225118575</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>722.313225118575</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579423</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
         <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2345.52893562587</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2027.872605705121</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689663</v>
+        <v>1703.178171771915</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>520.377068886138</v>
+        <v>160.5279704919323</v>
       </c>
       <c r="C16" t="n">
-        <v>421.9682260983211</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>338.1313881470297</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>338.1313881470297</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>252.6017285061965</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>156.1439497518359</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>72.46167385952347</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1201.790056457679</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>1007.606986424697</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W16" t="n">
-        <v>796.0728595020682</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="X16" t="n">
-        <v>633.7888124312454</v>
+        <v>368.0415815981106</v>
       </c>
       <c r="Y16" t="n">
-        <v>633.7888124312454</v>
+        <v>216.7257955609477</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390484</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184705</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5841,7 +5841,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5908,16 +5908,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
         <v>812.1990332879427</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6017,10 +6017,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6072,13 +6072,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6306,22 +6306,22 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1325.82389827615</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1842.344180867131</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2247.965549583528</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746015</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,16 +6385,16 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904108</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6443,52 +6443,52 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>755.8323718938483</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1342.20402534195</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1981.256287116104</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375468</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236564</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>1501.557331157736</v>
       </c>
       <c r="N30" t="n">
-        <v>1617.556722754498</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6598,73 +6598,73 @@
         <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
         <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222128</v>
+        <v>1743.798875918592</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654423</v>
+        <v>1464.542485303048</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463654</v>
+        <v>904.3560533993095</v>
       </c>
       <c r="F32" t="n">
-        <v>622.898782305708</v>
+        <v>601.3807258108121</v>
       </c>
       <c r="G32" t="n">
-        <v>317.146589723076</v>
+        <v>302.1370811803401</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189319</v>
+        <v>91.97314162835556</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076154</v>
+        <v>67.55513560234522</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495896</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770514</v>
+        <v>571.1872645386352</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150697</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770096</v>
+        <v>2690.011461406517</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901618</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042566</v>
+        <v>3334.69663425397</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038077</v>
+        <v>3377.756780117261</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908492</v>
+        <v>3325.162335939836</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397273</v>
+        <v>3215.580844380778</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761237</v>
+        <v>3073.747225696902</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.14596739412</v>
+        <v>2845.559527281945</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291772</v>
+        <v>2588.479603131757</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154194</v>
+        <v>2312.946108946339</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004161</v>
+        <v>2030.374510748465</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288499</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076154</v>
+        <v>67.55513560234522</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.55513560234522</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645717</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>387.2942816645717</v>
       </c>
       <c r="M33" t="n">
-        <v>1092.11865173455</v>
+        <v>1015.065931291253</v>
       </c>
       <c r="N33" t="n">
-        <v>1747.89662294511</v>
+        <v>1670.843902501812</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965107</v>
+        <v>365.6713676929746</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918648</v>
+        <v>309.3853606404886</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237444</v>
+        <v>267.6713584245282</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123118</v>
+        <v>226.0316571652555</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546496</v>
+        <v>182.6248332597533</v>
       </c>
       <c r="G34" t="n">
-        <v>143.29939878346</v>
+        <v>128.2898902407237</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431879</v>
+        <v>86.7304500837425</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076154</v>
+        <v>67.55513560234522</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076154</v>
+        <v>143.5810516071629</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777739</v>
+        <v>225.4160927171048</v>
       </c>
       <c r="L34" t="n">
-        <v>526.0564146786442</v>
+        <v>389.5437325909046</v>
       </c>
       <c r="M34" t="n">
-        <v>806.374667072951</v>
+        <v>575.8353109291686</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831231</v>
+        <v>870.6770655353603</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600009</v>
+        <v>1145.033953152051</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376588</v>
+        <v>1376.562239503612</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746639</v>
+        <v>1379.984435873663</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.62318930858</v>
+        <v>1370.002557387764</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420495</v>
+        <v>1281.105584451839</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518094</v>
+        <v>1159.305643501598</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689359</v>
+        <v>987.7859626250234</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395485</v>
+        <v>835.7257283273725</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300091</v>
+        <v>666.3144371400749</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012439</v>
+        <v>546.1532258045828</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584471</v>
+        <v>436.960275502751</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7096,22 +7096,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,43 +7339,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
@@ -7397,10 +7397,10 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H41" t="n">
         <v>68.7795079292422</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7633905351325</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7570,25 +7570,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>270.9691711012521</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924312</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,10 +7676,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7807,22 +7807,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.20216247628</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321635</v>
+        <v>637.511116813849</v>
       </c>
       <c r="N2" t="n">
-        <v>452.8420031504899</v>
+        <v>667.9090757920161</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>98.97569223556306</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.082864483748</v>
+        <v>611.1777065035438</v>
       </c>
       <c r="N3" t="n">
-        <v>473.3538549308945</v>
+        <v>604.1626973083986</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431209</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321635</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>400.1079634407339</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115882</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>577.0610358108032</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886028</v>
+        <v>572.6307885465602</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431209</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,7 +8538,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>313.8678003657251</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>412.7428484698906</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9489,10 +9489,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9720,16 +9720,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>192.2856137303845</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,25 +9954,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>228.1998931286863</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101137</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>723.5863546247123</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>228.1998931286863</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>199.6102425680208</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>168.5060516210923</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>90.06034685691823</v>
@@ -11148,7 +11148,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>147.5112319245281</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>297.8137645877555</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>48.1304924019048</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.36262275345336</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>236.333990713347</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>237.0692670214297</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>56.6417792913311</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>50.44604802070708</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>804331.2851756976</v>
+        <v>804030.5113688175</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>804331.2851756976</v>
+        <v>804030.5113688175</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>714083.9960595189</v>
+        <v>714083.996059519</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>806365.8766029263</v>
+        <v>806365.8766029264</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427275</v>
       </c>
       <c r="C2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427275</v>
       </c>
       <c r="D2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427277</v>
       </c>
       <c r="E2" t="n">
         <v>414333.4609034412</v>
       </c>
       <c r="F2" t="n">
-        <v>414333.4609034412</v>
+        <v>414333.4609034411</v>
       </c>
       <c r="G2" t="n">
-        <v>468863.6630427275</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="H2" t="n">
-        <v>468863.6630427275</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="I2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="J2" t="n">
-        <v>468863.6630427281</v>
+        <v>468863.6630427282</v>
       </c>
       <c r="K2" t="n">
         <v>468863.663042728</v>
       </c>
       <c r="L2" t="n">
-        <v>468863.6630427281</v>
+        <v>468863.6630427282</v>
       </c>
       <c r="M2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="N2" t="n">
+        <v>468863.6630427277</v>
+      </c>
+      <c r="O2" t="n">
         <v>468863.6630427276</v>
       </c>
-      <c r="O2" t="n">
-        <v>468863.6630427277</v>
-      </c>
       <c r="P2" t="n">
-        <v>468863.6630427275</v>
+        <v>468863.6630427276</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918555</v>
+        <v>173858.6570340556</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062222</v>
+        <v>22558.42953401305</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945023</v>
+        <v>200285.8640399297</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728568</v>
+        <v>62456.24177539648</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.8294596231</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892388</v>
+        <v>184487.2052585812</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892388</v>
+        <v>184487.2052585812</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589425</v>
+        <v>86988.78851589419</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589425</v>
+        <v>86988.78851589421</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26442,10 +26442,10 @@
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001372</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001372</v>
+        <v>65170.0675348173</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173845</v>
+        <v>60823.19813315428</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41898.60882161955</v>
+        <v>45347.73321527344</v>
       </c>
       <c r="C6" t="n">
-        <v>224103.557113475</v>
+        <v>219206.390249329</v>
       </c>
       <c r="D6" t="n">
-        <v>218664.0151376507</v>
+        <v>210927.7259142599</v>
       </c>
       <c r="E6" t="n">
-        <v>162036.0912136618</v>
+        <v>161826.3596669724</v>
       </c>
       <c r="F6" t="n">
-        <v>274158.6526877064</v>
+        <v>273948.9211410168</v>
       </c>
       <c r="G6" t="n">
         <v>228520.8631830495</v>
       </c>
       <c r="H6" t="n">
-        <v>275946.1887197313</v>
+        <v>275946.1887197315</v>
       </c>
       <c r="I6" t="n">
         <v>275946.1887197315</v>
       </c>
       <c r="J6" t="n">
-        <v>62904.27112244665</v>
+        <v>69420.55627701942</v>
       </c>
       <c r="K6" t="n">
-        <v>269706.4203169489</v>
+        <v>269706.420316949</v>
       </c>
       <c r="L6" t="n">
-        <v>214523.8313823278</v>
+        <v>210474.994171856</v>
       </c>
       <c r="M6" t="n">
-        <v>233745.3592601084</v>
+        <v>232693.6642489204</v>
       </c>
       <c r="N6" t="n">
-        <v>275946.1887197315</v>
+        <v>275946.1887197316</v>
       </c>
       <c r="O6" t="n">
         <v>248178.4946769603</v>
       </c>
       <c r="P6" t="n">
-        <v>275946.1887197314</v>
+        <v>275946.1887197315</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.790584454232</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.790584454232</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443781</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095192</v>
+        <v>844.4391950293152</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466071</v>
+        <v>78.0703022192456</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551323</v>
+        <v>17.5800495428748</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.790584454232</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348589</v>
+        <v>72.6215418150631</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773704</v>
+        <v>659.3622249971661</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240739</v>
+        <v>117.1268713042779</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.790584454232</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348589</v>
+        <v>72.6215418150631</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>267.571576271366</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.6394641755875</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>1.202334957891011</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>39.78297167134244</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>90.44923705978175</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>240.4753947424452</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>269.5625553095223</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>37.98540137625542</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>66.31852263746555</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>104.1482203229543</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50.04249597330396</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2685284851041</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>305.1133005001087</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>213.1557309422876</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>18.46188697250408</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,10 +28071,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L19" t="n">
-        <v>35.71049010668918</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28980,19 +28980,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29217,19 +29217,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29299,7 +29299,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431647</v>
@@ -29311,16 +29311,16 @@
         <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>86.65052755599589</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431647</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>86.65052755599476</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566011</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000712</v>
+        <v>81.10808140893982</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>106.86834202248</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>94.97643844044723</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.7799197727096</v>
       </c>
     </row>
     <row r="35">
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,10 +30183,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30642,13 +30642,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,25 +30879,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5.636002634528481</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>5.636002634528609</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344362</v>
+        <v>487.7860652161217</v>
       </c>
       <c r="N2" t="n">
-        <v>303.7235118127058</v>
+        <v>518.790584454232</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>9.378756902229718</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344362</v>
+        <v>518.790584454232</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9817420767279</v>
+        <v>518.790584454232</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.790584454232</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344362</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>250.9894721029498</v>
       </c>
       <c r="O5" t="n">
-        <v>68.9543646874918</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>484.6739137614913</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344362</v>
+        <v>487.2586756923936</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454232</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>221.4806783164132</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>320.0552895810017</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L19" t="n">
-        <v>201.4959849287092</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36209,10 +36209,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>135.5123342397976</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2252668734663</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287077</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>438.3550650625836</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>135.5123342397974</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114541997</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>449.2589679877744</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>631.1992325754004</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511627</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105713</v>
+        <v>645.9226305176207</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458575</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792973</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273792</v>
+        <v>43.49509683160654</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>107.2231205187089</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>75.81849273220344</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.79385455032094</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868812</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220912</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>283.1497498932392</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.37649167503</v>
+        <v>297.8199541476683</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371501</v>
+        <v>277.1281693097884</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106677</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,7 +37716,7 @@
         <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>210.9596397950874</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873206</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,10 +38190,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
